--- a/qPCR/CXCL8 and CASP3.xlsx
+++ b/qPCR/CXCL8 and CASP3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="164" documentId="14_{356FDF62-5703-478C-8C2C-57836FCBBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974F768F-B402-4D2C-A24E-DF1ECC361AA1}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="2250" windowWidth="19035" windowHeight="14880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10110" yWindow="690" windowWidth="19035" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -16706,7 +16706,7 @@
         <v>29.807876586914063</v>
       </c>
       <c r="C194" s="3">
-        <f t="shared" ref="C194:C257" si="3">IF(B194="Undetermined",40.1,B194)</f>
+        <f t="shared" ref="C194:C256" si="3">IF(B194="Undetermined",40.1,B194)</f>
         <v>29.807876586914063</v>
       </c>
       <c r="D194" s="4" t="str">
@@ -19488,7 +19488,7 @@
         <v>28.652561187744141</v>
       </c>
       <c r="C314" s="3">
-        <f t="shared" ref="C258:C321" si="5">IF(B314="Undetermined",40.1,B314)</f>
+        <f t="shared" ref="C314:C321" si="5">IF(B314="Undetermined",40.1,B314)</f>
         <v>28.652561187744141</v>
       </c>
       <c r="D314" s="4" t="str">
@@ -20083,8 +20083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21750,8 +21750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
